--- a/compilado/excel/template_reporterepuestoanual.xlsx
+++ b/compilado/excel/template_reporterepuestoanual.xlsx
@@ -42,9 +42,6 @@
     <t>NSN</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -57,10 +54,13 @@
     <t>Zonal</t>
   </si>
   <si>
-    <t>Saldo</t>
-  </si>
-  <si>
     <t>Reporte Solicitud Programada Anual</t>
+  </si>
+  <si>
+    <t>Repuesto</t>
+  </si>
+  <si>
+    <t>Saldo en bodega</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,6 +276,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,24 +294,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +680,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,40 +696,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -742,15 +741,15 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -764,15 +763,15 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -792,9 +791,9 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -805,9 +804,9 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -816,9 +815,9 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
@@ -837,19 +836,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,7 +1197,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
